--- a/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CA125A-6D80-4138-8137-E1D7D715A53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6F7D60-0606-4DC2-9D7D-315D1C461BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE5B4663-ED48-4625-AB3C-41CC1A91D39E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0F97AD8-B8AF-4F31-99F2-EFB519E89E19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="261">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>87,64%</t>
+    <t>88,23%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>97,48%</t>
   </si>
   <si>
-    <t>91,13%</t>
+    <t>92,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -115,7 +115,7 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>8,87%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,661 +127,688 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,34%</t>
+    <t>91,87%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>92,46%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -790,13 +817,10 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF84635-912C-41EF-863B-2E30F455942B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E187F9-DB46-4AB2-B4A5-7B2C294F4EA8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2739,7 +2763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A57AB1-3674-4DCA-B69E-7C2CEBCC334E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BB6814-66CE-4BE8-A082-2932FA09D41E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,7 +3197,7 @@
         <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3185,10 +3209,10 @@
         <v>134861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3206,13 +3230,13 @@
         <v>977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3221,13 +3245,13 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3236,13 +3260,13 @@
         <v>2020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -3343,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3382,7 +3406,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3397,7 +3421,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3483,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3498,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3522,7 +3546,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3537,7 +3561,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3552,7 +3576,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -3635,10 +3659,10 @@
         <v>61426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3650,10 +3674,10 @@
         <v>124203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3677,7 +3701,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3790,10 +3814,10 @@
         <v>158035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3805,10 +3829,10 @@
         <v>278874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3832,7 +3856,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3841,13 +3865,13 @@
         <v>1002</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3856,13 +3880,13 @@
         <v>1002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -3963,7 +3987,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -4002,7 +4026,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4017,7 +4041,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4109,7 @@
         <v>566511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>49</v>
@@ -4100,13 +4124,13 @@
         <v>735255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>1198</v>
@@ -4115,13 +4139,13 @@
         <v>1301764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4160,7 @@
         <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
@@ -4151,13 +4175,13 @@
         <v>3031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4166,13 +4190,13 @@
         <v>4009</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A783146A-D405-49E5-B9F3-CAAF00EE8704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865AE745-E9C4-4BA7-A618-075095E955AF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4269,7 +4293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4379,7 +4403,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -4391,10 +4415,10 @@
         <v>34645</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4406,10 +4430,10 @@
         <v>63677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4433,7 +4457,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4442,13 +4466,13 @@
         <v>973</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4457,13 +4481,13 @@
         <v>973</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,10 +4570,10 @@
         <v>115975</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4561,10 +4585,10 @@
         <v>196419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4597,13 +4621,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4612,13 +4636,13 @@
         <v>1089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4713,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -4704,7 +4728,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -4743,7 +4767,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4758,7 +4782,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4844,7 +4868,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -4859,7 +4883,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4874,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4898,7 +4922,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4913,7 +4937,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4928,7 +4952,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +5038,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5029,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5068,7 +5092,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5083,7 +5107,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5178,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5169,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
@@ -5184,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5208,7 +5232,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5223,7 +5247,7 @@
         <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5238,7 +5262,7 @@
         <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5333,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5324,7 +5348,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5339,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>26</v>
@@ -5363,7 +5387,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5378,7 +5402,7 @@
         <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5393,7 +5417,7 @@
         <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5488,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>26</v>
@@ -5479,7 +5503,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -5494,7 +5518,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -5518,7 +5542,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5533,7 +5557,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5548,7 +5572,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,7 +5643,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>26</v>
@@ -5631,7 +5655,7 @@
         <v>614864</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>245</v>
@@ -5646,10 +5670,10 @@
         <v>1113092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5673,7 +5697,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5682,13 +5706,13 @@
         <v>2062</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5697,13 +5721,13 @@
         <v>2062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6F7D60-0606-4DC2-9D7D-315D1C461BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B175F5-89E6-414F-9AEA-53860237EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0F97AD8-B8AF-4F31-99F2-EFB519E89E19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95B254A3-635C-490C-AED5-52C6270C3EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="257">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>88,23%</t>
+    <t>89,6%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>88,0%</t>
+    <t>86,88%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>92,12%</t>
+    <t>91,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,77%</t>
+    <t>10,4%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>12,0%</t>
+    <t>13,12%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>7,88%</t>
+    <t>8,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,19 +127,19 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>91,87%</t>
+    <t>90,04%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>92,46%</t>
+    <t>92,13%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,29%</t>
+    <t>94,24%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -148,13 +148,13 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,54%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -163,7 +163,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,71%</t>
+    <t>5,76%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -172,19 +172,19 @@
     <t>95,27%</t>
   </si>
   <si>
-    <t>83,23%</t>
+    <t>84,44%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>92,3%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>91,73%</t>
+    <t>92,48%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -193,13 +193,13 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>16,77%</t>
+    <t>15,56%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>7,7%</t>
   </si>
   <si>
     <t>2,81%</t>
@@ -208,7 +208,7 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>8,27%</t>
+    <t>7,52%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -220,13 +220,13 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>93,64%</t>
+    <t>92,96%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>95,77%</t>
   </si>
   <si>
     <t>0%</t>
@@ -238,13 +238,13 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,36%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,7 +253,7 @@
     <t>89,64%</t>
   </si>
   <si>
-    <t>67,44%</t>
+    <t>68,98%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -268,7 +268,7 @@
     <t>10,36%</t>
   </si>
   <si>
-    <t>32,56%</t>
+    <t>31,02%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -286,25 +286,25 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>92,02%</t>
+    <t>90,26%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>94,51%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>9,74%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>5,49%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -313,49 +313,49 @@
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>93,25%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>6,75%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -364,208 +364,202 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>91,6%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>92,98%</t>
+    <t>92,26%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>8,4%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>7,74%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>8,08%</t>
+    <t>8,06%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>98,29%</t>
@@ -574,30 +568,24 @@
     <t>99,37%</t>
   </si>
   <si>
-    <t>96,59%</t>
+    <t>97,37%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>98,44%</t>
   </si>
   <si>
@@ -616,7 +604,7 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -625,7 +613,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -640,7 +628,7 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -649,10 +637,10 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -661,52 +649,46 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>85,83%</t>
+    <t>85,37%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>14,17%</t>
+    <t>14,63%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>94,98%</t>
+    <t>94,37%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>97,2%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -805,10 +787,13 @@
     <t>99,67%</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,31%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -817,10 +802,13 @@
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,64%</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E187F9-DB46-4AB2-B4A5-7B2C294F4EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE04039-5259-4745-9F2E-042155A52FDA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2602,7 +2590,7 @@
         <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H28" s="7">
         <v>535</v>
@@ -2611,13 +2599,13 @@
         <v>550433</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>944</v>
@@ -2626,13 +2614,13 @@
         <v>953765</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2635,13 @@
         <v>9382</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2662,13 +2650,13 @@
         <v>10917</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2677,13 +2665,13 @@
         <v>20299</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2727,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2763,7 +2751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BB6814-66CE-4BE8-A082-2932FA09D41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EC6C10-E838-4A20-B032-CA827985FF73}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2780,7 +2768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2885,39 +2873,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,39 +2918,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,39 +2963,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3042,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -3057,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -3081,7 +3069,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3096,7 +3084,7 @@
         <v>63</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3111,7 +3099,7 @@
         <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3167,10 @@
         <v>58026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3194,10 +3182,10 @@
         <v>76836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3209,10 +3197,10 @@
         <v>134861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3230,13 +3218,13 @@
         <v>977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3245,13 +3233,13 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3260,13 +3248,13 @@
         <v>2020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3352,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -3367,7 +3355,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3391,7 +3379,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3406,7 +3394,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3421,7 +3409,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3507,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3522,7 +3510,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3546,7 +3534,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3561,7 +3549,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3576,7 +3564,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -3659,10 +3647,10 @@
         <v>61426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3674,10 +3662,10 @@
         <v>124203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3701,7 +3689,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3710,13 +3698,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3725,13 +3713,13 @@
         <v>987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3790,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -3814,10 +3802,10 @@
         <v>158035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3829,10 +3817,10 @@
         <v>278874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3856,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3865,13 +3853,13 @@
         <v>1002</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3880,13 +3868,13 @@
         <v>1002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3945,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>26</v>
@@ -3972,7 +3960,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -3987,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -4011,7 +3999,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4026,7 +4014,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4041,7 +4029,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,10 +4097,10 @@
         <v>566511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4124,13 +4112,13 @@
         <v>735255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>1198</v>
@@ -4139,13 +4127,13 @@
         <v>1301764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4148,13 @@
         <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4175,13 +4163,13 @@
         <v>3031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4190,13 +4178,13 @@
         <v>4009</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4240,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865AE745-E9C4-4BA7-A618-075095E955AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F9A56-1A17-411E-84ED-115E2969414A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,7 +4281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4403,7 +4391,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -4415,10 +4403,10 @@
         <v>34645</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4430,10 +4418,10 @@
         <v>63677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4457,7 +4445,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4466,13 +4454,13 @@
         <v>973</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4481,13 +4469,13 @@
         <v>973</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,10 +4558,10 @@
         <v>115975</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4585,10 +4573,10 @@
         <v>196419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4621,13 +4609,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4636,13 +4624,13 @@
         <v>1089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -4728,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -4767,7 +4755,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4782,7 +4770,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4868,7 +4856,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -4883,7 +4871,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4898,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4922,7 +4910,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4937,7 +4925,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4952,7 +4940,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,7 +5026,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5053,7 +5041,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5092,7 +5080,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5107,7 +5095,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,7 +5166,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5193,7 +5181,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
@@ -5208,7 +5196,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5232,7 +5220,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5247,7 +5235,7 @@
         <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5262,7 +5250,7 @@
         <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5321,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5348,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5363,7 +5351,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>26</v>
@@ -5387,7 +5375,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5402,7 +5390,7 @@
         <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5417,7 +5405,7 @@
         <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,7 +5476,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>26</v>
@@ -5503,7 +5491,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -5518,7 +5506,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -5542,7 +5530,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5557,7 +5545,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5572,7 +5560,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5631,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>26</v>
@@ -5655,10 +5643,10 @@
         <v>614864</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5670,10 +5658,10 @@
         <v>1113092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5697,7 +5685,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5706,13 +5694,13 @@
         <v>2062</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5721,13 +5709,13 @@
         <v>2062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5771,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B175F5-89E6-414F-9AEA-53860237EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BE7029-26F2-472F-A867-676A01EBB2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95B254A3-635C-490C-AED5-52C6270C3EB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B07AFB-312B-4705-846E-631D1E35F151}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>89,6%</t>
+    <t>87,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>86,88%</t>
+    <t>88,0%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>91,45%</t>
+    <t>91,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,4%</t>
+    <t>12,36%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>13,12%</t>
+    <t>12,0%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>8,55%</t>
+    <t>8,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,43 +127,43 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>90,04%</t>
+    <t>89,34%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>92,13%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>10,66%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -172,19 +172,19 @@
     <t>95,27%</t>
   </si>
   <si>
-    <t>84,44%</t>
+    <t>84,48%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>92,3%</t>
+    <t>90,67%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>92,48%</t>
+    <t>92,92%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -193,13 +193,13 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>15,56%</t>
+    <t>15,52%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,7%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>2,81%</t>
@@ -208,7 +208,7 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>7,52%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -220,13 +220,13 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>92,96%</t>
+    <t>94,02%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>95,77%</t>
+    <t>96,23%</t>
   </si>
   <si>
     <t>0%</t>
@@ -238,13 +238,13 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,23%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,7 +253,7 @@
     <t>89,64%</t>
   </si>
   <si>
-    <t>68,98%</t>
+    <t>68,61%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -262,13 +262,13 @@
     <t>95,66%</t>
   </si>
   <si>
-    <t>86,61%</t>
+    <t>84,89%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>31,39%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -277,7 +277,7 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>13,39%</t>
+    <t>15,11%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -286,25 +286,25 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>90,26%</t>
+    <t>92,02%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>94,45%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>9,74%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,55%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -313,49 +313,49 @@
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>93,07%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -364,55 +364,58 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>92,14%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>92,26%</t>
+    <t>93,14%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>7,86%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>96,54%</t>
+    <t>96,77%</t>
   </si>
   <si>
     <t>98,99%</t>
@@ -421,16 +424,19 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>1,94%</t>
@@ -439,16 +445,16 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -475,7 +481,7 @@
     <t>98,34%</t>
   </si>
   <si>
-    <t>92,81%</t>
+    <t>91,54%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -484,13 +490,13 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>94,84%</t>
+    <t>94,72%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>8,46%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -499,7 +505,7 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -538,13 +544,13 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>92,05%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>95,49%</t>
+    <t>95,54%</t>
   </si>
   <si>
     <t>3,09%</t>
@@ -553,39 +559,39 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,51%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
+    <t>98,22%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>98,44%</t>
   </si>
   <si>
@@ -613,9 +619,6 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
@@ -637,9 +640,6 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
   </si>
   <si>
@@ -649,46 +649,46 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>85,37%</t>
+    <t>86,18%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
+    <t>93,34%</t>
+  </si>
+  <si>
     <t>6,57%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>14,63%</t>
+    <t>13,82%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
+    <t>6,66%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -757,43 +757,31 @@
     <t>97,54%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
     <t>2,13%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,83%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -802,13 +790,13 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,59%</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE04039-5259-4745-9F2E-042155A52FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C574A9FA-31D1-467F-9978-B73ED7D7AD28}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2590,7 +2578,7 @@
         <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>535</v>
@@ -2599,13 +2587,13 @@
         <v>550433</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>944</v>
@@ -2614,13 +2602,13 @@
         <v>953765</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2623,13 @@
         <v>9382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2650,13 +2638,13 @@
         <v>10917</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2665,13 +2653,13 @@
         <v>20299</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,7 +2715,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +2739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EC6C10-E838-4A20-B032-CA827985FF73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE4058-2290-43F5-AE6D-B96D187AF60F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2768,7 +2756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2873,39 +2861,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,39 +2906,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,39 +2951,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,7 +3003,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3030,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -3045,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -3069,7 +3057,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3084,7 +3072,7 @@
         <v>63</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3099,7 +3087,7 @@
         <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,10 +3155,10 @@
         <v>58026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3182,10 +3170,10 @@
         <v>76836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3197,10 +3185,10 @@
         <v>134861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3218,13 +3206,13 @@
         <v>977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3233,13 +3221,13 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3248,13 +3236,13 @@
         <v>2020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3313,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3340,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -3355,7 +3343,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3379,7 +3367,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3394,7 +3382,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3409,7 +3397,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3495,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3510,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3534,7 +3522,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3549,7 +3537,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3564,7 +3552,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3623,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -3647,10 +3635,10 @@
         <v>61426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3662,10 +3650,10 @@
         <v>124203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3689,7 +3677,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3698,13 +3686,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3713,13 +3701,13 @@
         <v>987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -3802,10 +3790,10 @@
         <v>158035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3817,10 +3805,10 @@
         <v>278874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3844,7 +3832,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3853,13 +3841,13 @@
         <v>1002</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3868,13 +3856,13 @@
         <v>1002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3933,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>26</v>
@@ -3960,7 +3948,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -3975,7 +3963,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -3999,7 +3987,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4014,7 +4002,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4029,7 +4017,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,10 +4085,10 @@
         <v>566511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4112,13 +4100,13 @@
         <v>735255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>1198</v>
@@ -4127,13 +4115,13 @@
         <v>1301764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4136,13 @@
         <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4163,13 +4151,13 @@
         <v>3031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4178,13 +4166,13 @@
         <v>4009</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4228,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4264,7 +4252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F9A56-1A17-411E-84ED-115E2969414A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A6F9CE-5E6B-48F3-B680-F22B8395827F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4421,7 +4409,7 @@
         <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4445,7 +4433,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4454,13 +4442,13 @@
         <v>973</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4469,13 +4457,13 @@
         <v>973</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,10 +4546,10 @@
         <v>115975</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4573,10 +4561,10 @@
         <v>196419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4609,13 +4597,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4624,7 +4612,7 @@
         <v>1089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
@@ -5351,7 +5339,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>26</v>
@@ -5375,7 +5363,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5390,7 +5378,7 @@
         <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5405,7 +5393,7 @@
         <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,7 +5464,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>26</v>
@@ -5491,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -5506,7 +5494,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -5530,7 +5518,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5545,7 +5533,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5560,7 +5548,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>26</v>
@@ -5643,10 +5631,10 @@
         <v>614864</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5658,10 +5646,10 @@
         <v>1113092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5685,7 +5673,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5694,13 +5682,13 @@
         <v>2062</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5709,13 +5697,13 @@
         <v>2062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5759,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BE7029-26F2-472F-A867-676A01EBB2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{373424E6-CB2A-4DA4-BD71-AFCD9314B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B07AFB-312B-4705-846E-631D1E35F151}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD4C544-E0B6-4EF7-A597-8C0CC868BA98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="260">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -463,7 +463,16 @@
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>97,34%</t>
@@ -508,136 +517,148 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,84%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
@@ -1208,7 +1229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C574A9FA-31D1-467F-9978-B73ED7D7AD28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F0978-3D9A-458F-A036-B9ACB8BD4602}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2739,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE4058-2290-43F5-AE6D-B96D187AF60F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DA4BCE-FA3D-4E24-A1D7-EE9C797C6E92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,43 +2878,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33088</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="7">
+        <v>44335</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="N4" s="7">
+        <v>77423</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,41 +2931,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,43 +2980,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33088</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="7">
+        <v>44335</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="N6" s="7">
+        <v>77423</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3042,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3033,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -3057,7 +3096,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3087,7 +3126,7 @@
         <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,10 +3194,10 @@
         <v>58026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3170,7 +3209,7 @@
         <v>76836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
@@ -3185,10 +3224,10 @@
         <v>134861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3206,13 +3245,13 @@
         <v>977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3221,7 +3260,7 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -3236,13 +3275,13 @@
         <v>2020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,46 +3343,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>101463</v>
+        <v>68375</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="7">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>140295</v>
+        <v>95960</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="7">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>241758</v>
+        <v>164336</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3367,7 +3406,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3382,7 +3421,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3397,7 +3436,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>101463</v>
+        <v>68375</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -3421,10 +3460,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7">
-        <v>140295</v>
+        <v>95960</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3436,10 +3475,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="N15" s="7">
-        <v>241758</v>
+        <v>164336</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -3468,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3483,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3498,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3522,7 +3561,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3537,7 +3576,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3552,7 +3591,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3662,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -3635,10 +3674,10 @@
         <v>61426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3650,10 +3689,10 @@
         <v>124203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3677,7 +3716,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3686,13 +3725,13 @@
         <v>987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3701,13 +3740,13 @@
         <v>987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -3793,7 +3832,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3805,10 +3844,10 @@
         <v>278874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3832,7 +3871,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3847,7 +3886,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3856,13 +3895,13 @@
         <v>1002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3987,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -3963,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>26</v>
@@ -4002,7 +4041,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4017,7 +4056,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4124,7 @@
         <v>566511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>49</v>
@@ -4100,13 +4139,13 @@
         <v>735255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>1198</v>
@@ -4115,13 +4154,13 @@
         <v>1301764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4175,7 @@
         <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
@@ -4151,13 +4190,13 @@
         <v>3031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4166,13 +4205,13 @@
         <v>4009</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A6F9CE-5E6B-48F3-B680-F22B8395827F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063AEBB-C2D0-40C3-B633-73BB589A22AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4269,7 +4308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4379,7 +4418,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -4391,10 +4430,10 @@
         <v>34645</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4406,10 +4445,10 @@
         <v>63677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4433,7 +4472,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4442,13 +4481,13 @@
         <v>973</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4457,13 +4496,13 @@
         <v>973</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,10 +4585,10 @@
         <v>115975</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4564,7 +4603,7 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4597,13 +4636,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4618,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4728,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -4704,7 +4743,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -4743,7 +4782,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4758,7 +4797,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4844,7 +4883,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -4859,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4874,7 +4913,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4898,7 +4937,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4913,7 +4952,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4928,7 +4967,7 @@
         <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5029,7 +5068,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5068,7 +5107,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5083,7 +5122,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5169,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
@@ -5184,7 +5223,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5208,7 +5247,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5223,7 +5262,7 @@
         <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5238,7 +5277,7 @@
         <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5348,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5324,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5363,7 +5402,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5378,7 +5417,7 @@
         <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5464,7 +5503,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>26</v>
@@ -5479,7 +5518,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -5518,7 +5557,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5533,7 +5572,7 @@
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5619,7 +5658,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>26</v>
@@ -5631,10 +5670,10 @@
         <v>614864</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5646,10 +5685,10 @@
         <v>1113092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5673,7 +5712,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5682,13 +5721,13 @@
         <v>2062</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5697,13 +5736,13 @@
         <v>2062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
